--- a/import/example2.xlsx
+++ b/import/example2.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="Aleksandr"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="28620" windowHeight="15480"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="28620" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="example2" sheetId="1" r:id="rId4"/>
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="10799" val="923" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="10799" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" keepXLPalette="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="10799" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="10799"/>
+      <pm:revision xmlns:pm="smNativeData" day="1552411377" val="923" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1552411377" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" keepXLPalette="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1552411377" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1552411377"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="435">
   <si>
     <t>City</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Albania</t>
   </si>
   <si>
-    <t>Algiers</t>
-  </si>
-  <si>
     <t>Algeria</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>Vienna</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>Belmopan</t>
-  </si>
-  <si>
     <t>Belize</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
   </si>
   <si>
     <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Bujumbura</t>
   </si>
   <si>
     <t>Burundi</t>
@@ -1370,7 +1358,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="10799" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1552411377" ulstyle="none">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1386,7 +1374,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="10799" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1552411377" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -1403,7 +1391,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="10799" ulstyle="none">
+          <pm:charSpec xmlns:pm="smNativeData" id="1552411377" ulstyle="none">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -1412,15 +1400,26 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1552411377" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -1436,7 +1435,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="10799"/>
+          <pm:border xmlns:pm="smNativeData" id="1552411377"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1552411377"/>
         </ext>
       </extLst>
     </border>
@@ -1451,12 +1469,12 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1469,10 +1487,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="10799" count="1">
-        <pm:charStyle name="Обычный" fontId="1" Id="1"/>
+      <pm:charStyles xmlns:pm="smNativeData" id="1552411377" count="1">
+        <pm:charStyle name="Обычный" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="10799" count="28">
+      <pm:colors xmlns:pm="smNativeData" id="1552411377" count="28">
         <pm:color name="Сине-фиолетовый" rgb="9999FF"/>
         <pm:color name="Вишневый" rgb="993366"/>
         <pm:color name="Слоновая кость" rgb="FFFFCC"/>
@@ -1737,7 +1755,7 @@
   <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:IV1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.45"/>
@@ -1748,17 +1766,17 @@
     <col min="4" max="4" width="11.567568" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1791,11 +1809,9 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4"/>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>36.7528870000000012</v>
@@ -1806,13 +1822,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" t="n">
-        <v>-14.2793299999999999</v>
+        <v>-14.2793300000000016</v>
       </c>
       <c r="D5" t="n">
         <v>-170.700896999999998</v>
@@ -1820,10 +1836,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>42.5075310000000002</v>
@@ -1834,24 +1850,24 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="n">
         <v>-8.83833300000000044</v>
       </c>
       <c r="D7" t="n">
-        <v>13.2344439999999999</v>
+        <v>13.2344440000000017</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
       </c>
       <c r="C8" t="n">
         <v>-34.6084170000000029</v>
@@ -1862,10 +1878,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
       </c>
       <c r="C9" t="n">
         <v>40.1833329999999975</v>
@@ -1876,10 +1892,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
       </c>
       <c r="C10" t="n">
         <v>12.5245800000000003</v>
@@ -1890,10 +1906,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
       </c>
       <c r="C11" t="n">
         <v>-35.3074999999999974</v>
@@ -1903,11 +1919,9 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
+      <c r="A12"/>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
         <v>48.2083330000000032</v>
@@ -1918,10 +1932,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
         <v>40.3795709999999985</v>
@@ -1932,10 +1946,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
         <v>25.0599999999999987</v>
@@ -1946,10 +1960,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="n">
         <v>26.2166670000000011</v>
@@ -1960,10 +1974,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
         <v>23.7099210000000014</v>
@@ -1974,10 +1988,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="n">
         <v>13.0961110000000005</v>
@@ -1988,10 +2002,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
         <v>53.8999999999999986</v>
@@ -2002,10 +2016,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
         <v>50.8462809999999976</v>
@@ -2015,25 +2029,23 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
+      <c r="A20"/>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
         <v>17.2513889999999996</v>
       </c>
       <c r="D20" t="n">
-        <v>-88.7669439999999952</v>
+        <v>-88.766943999999981</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
         <v>27.4666670000000011</v>
@@ -2044,10 +2056,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" t="n">
         <v>-16.4990099999999984</v>
@@ -2058,10 +2070,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" t="n">
         <v>43.8475999999999999</v>
@@ -2072,10 +2084,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" t="n">
         <v>-24.6541099999999993</v>
@@ -2086,10 +2098,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" t="n">
         <v>-15.7801480000000005</v>
@@ -2100,10 +2112,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C26" t="n">
         <v>18.4333330000000011</v>
@@ -2114,10 +2126,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C27" t="n">
         <v>4.94310000000000027</v>
@@ -2128,10 +2140,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C28" t="n">
         <v>42.6976259999999996</v>
@@ -2142,24 +2154,22 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C29" t="n">
         <v>12.3646370000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.53386399999999989</v>
+        <v>-1.53386399999999963</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
+      <c r="A30"/>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C30" t="n">
         <v>-3.3613780000000002</v>
@@ -2170,10 +2180,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C31" t="n">
         <v>11.5500000000000007</v>
@@ -2184,10 +2194,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C32" t="n">
         <v>3.86666699999999999</v>
@@ -2198,10 +2208,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C33" t="n">
         <v>45.423493999999998</v>
@@ -2212,10 +2222,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C34" t="n">
         <v>14.920833</v>
@@ -2226,10 +2236,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C35" t="n">
         <v>19.2869320000000002</v>
@@ -2240,10 +2250,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C36" t="n">
         <v>4.36169799999999963</v>
@@ -2254,10 +2264,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C37" t="n">
         <v>12.1047969999999996</v>
@@ -2268,52 +2278,52 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C38" t="n">
         <v>-33.4253599999999977</v>
       </c>
       <c r="D38" t="n">
-        <v>-70.5664660000000055</v>
+        <v>-70.5664660000000197</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C39" t="n">
         <v>39.9046670000000034</v>
       </c>
       <c r="D39" t="n">
-        <v>116.408197999999999</v>
+        <v>116.408198000000013</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C40" t="n">
         <v>4.64730199999999982</v>
       </c>
       <c r="D40" t="n">
-        <v>-74.0962679999999949</v>
+        <v>-74.0962679999999807</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C41" t="n">
         <v>-11.7172160000000005</v>
@@ -2324,10 +2334,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C42" t="n">
         <v>-4.26666699999999999</v>
@@ -2338,24 +2348,24 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C43" t="n">
         <v>9.9333329999999993</v>
       </c>
       <c r="D43" t="n">
-        <v>-84.0833329999999961</v>
+        <v>-84.0833329999999819</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C44" t="n">
         <v>6.81666699999999981</v>
@@ -2366,10 +2376,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C45" t="n">
         <v>45.8149119999999996</v>
@@ -2380,10 +2390,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C46" t="n">
         <v>23.1333330000000004</v>
@@ -2394,10 +2404,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C47" t="n">
         <v>35.1666669999999968</v>
@@ -2408,10 +2418,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C48" t="n">
         <v>50.0878110000000021</v>
@@ -2422,10 +2432,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C49" t="n">
         <v>-4.32500000000000018</v>
@@ -2436,10 +2446,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C50" t="n">
         <v>55.6762939999999986</v>
@@ -2450,10 +2460,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C51" t="n">
         <v>11.5879999999999992</v>
@@ -2464,10 +2474,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C52" t="n">
         <v>15.3013890000000004</v>
@@ -2478,10 +2488,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C53" t="n">
         <v>18.5</v>
@@ -2492,10 +2502,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C54" t="n">
         <v>-8.5666670000000007</v>
@@ -2506,24 +2516,24 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C55" t="n">
         <v>-0.229498000000000024</v>
       </c>
       <c r="D55" t="n">
-        <v>-78.5242769999999979</v>
+        <v>-78.5242769999999837</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C56" t="n">
         <v>30.064741999999999</v>
@@ -2534,10 +2544,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C57" t="n">
         <v>13.6899999999999995</v>
@@ -2548,10 +2558,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C58" t="n">
         <v>3.75</v>
@@ -2562,10 +2572,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C59" t="n">
         <v>15.3323599999999995</v>
@@ -2576,10 +2586,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C60" t="n">
         <v>59.4388620000000003</v>
@@ -2590,10 +2600,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C61" t="n">
         <v>9.02273600000000009</v>
@@ -2604,10 +2614,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C62" t="n">
         <v>-51.7009809999999987</v>
@@ -2618,10 +2628,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C63" t="n">
         <v>62.0177070000000015</v>
@@ -2632,10 +2642,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C64" t="n">
         <v>-18.1416000000000004</v>
@@ -2646,10 +2656,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C65" t="n">
         <v>60.1698129999999978</v>
@@ -2660,10 +2670,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C66" t="n">
         <v>48.8566670000000016</v>
@@ -2674,10 +2684,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C67" t="n">
         <v>4.92269999999999985</v>
@@ -2688,10 +2698,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C68" t="n">
         <v>-17.5350210000000004</v>
@@ -2702,10 +2712,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C69" t="n">
         <v>0.390840999999999994</v>
@@ -2716,10 +2726,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C70" t="n">
         <v>13.4530560000000001</v>
@@ -2730,10 +2740,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C71" t="n">
         <v>41.7166670000000011</v>
@@ -2744,10 +2754,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C72" t="n">
         <v>52.5234049999999968</v>
@@ -2758,10 +2768,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C73" t="n">
         <v>5.55571699999999957</v>
@@ -2772,10 +2782,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C74" t="n">
         <v>37.9791799999999995</v>
@@ -2786,10 +2796,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C75" t="n">
         <v>64.1836200000000048</v>
@@ -2800,10 +2810,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C76" t="n">
         <v>15.9985029999999995</v>
@@ -2814,10 +2824,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C77" t="n">
         <v>14.6413890000000002</v>
@@ -2828,10 +2838,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C78" t="n">
         <v>49.4588579999999993</v>
@@ -2842,10 +2852,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C79" t="n">
         <v>9.53702900000000042</v>
@@ -2856,10 +2866,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C80" t="n">
         <v>11.8666669999999996</v>
@@ -2870,10 +2880,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C81" t="n">
         <v>6.80461100000000041</v>
@@ -2884,10 +2894,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C82" t="n">
         <v>18.5392690000000009</v>
@@ -2898,10 +2908,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C83" t="n">
         <v>14.0820539999999994</v>
@@ -2912,10 +2922,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C84" t="n">
         <v>47.4984060000000028</v>
@@ -2926,10 +2936,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C85" t="n">
         <v>64.1353380000000044</v>
@@ -2940,24 +2950,24 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B86" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C86" t="n">
         <v>28.6353079999999984</v>
       </c>
       <c r="D86" t="n">
-        <v>77.2249599999999958</v>
+        <v>77.2249599999999816</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B87" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C87" t="n">
         <v>-6.21154399999999995</v>
@@ -2968,10 +2978,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C88" t="n">
         <v>35.6962159999999997</v>
@@ -2982,10 +2992,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B89" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C89" t="n">
         <v>33.3156999999999996</v>
@@ -2996,10 +3006,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C90" t="n">
         <v>53.3441040000000015</v>
@@ -3010,10 +3020,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B91" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C91" t="n">
         <v>31.7856999999999985</v>
@@ -3024,10 +3034,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C92" t="n">
         <v>41.895465999999999</v>
@@ -3038,10 +3048,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C93" t="n">
         <v>17.9927309999999991</v>
@@ -3052,10 +3062,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B94" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C94" t="n">
         <v>49.1902779999999993</v>
@@ -3066,10 +3076,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B95" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C95" t="n">
         <v>31.9565780000000004</v>
@@ -3080,10 +3090,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B96" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C96" t="n">
         <v>51.1000000000000014</v>
@@ -3094,10 +3104,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C97" t="n">
         <v>-1.16999999999999993</v>
@@ -3108,10 +3118,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C98" t="n">
         <v>1.30000000000000004</v>
@@ -3122,10 +3132,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C99" t="n">
         <v>37.3100000000000023</v>
@@ -3136,10 +3146,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B100" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C100" t="n">
         <v>29.3000000000000007</v>
@@ -3150,10 +3160,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C101" t="n">
         <v>42.5399999999999991</v>
@@ -3164,10 +3174,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C102" t="n">
         <v>56.5300000000000011</v>
@@ -3178,10 +3188,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C103" t="n">
         <v>33.5300000000000011</v>
@@ -3192,10 +3202,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B104" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C104" t="n">
         <v>-29.1799999999999997</v>
@@ -3206,10 +3216,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C105" t="n">
         <v>6.17999999999999972</v>
@@ -3220,10 +3230,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C106" t="n">
         <v>47.0799999999999983</v>
@@ -3234,10 +3244,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B107" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C107" t="n">
         <v>54.3800000000000026</v>
@@ -3248,10 +3258,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C108" t="n">
         <v>49.3699999999999974</v>
@@ -3262,10 +3272,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C109" t="n">
         <v>-18.5500000000000007</v>
@@ -3276,10 +3286,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C110" t="n">
         <v>-14</v>
@@ -3290,10 +3300,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C111" t="n">
         <v>3.08999999999999986</v>
@@ -3304,10 +3314,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B112" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C112" t="n">
         <v>4</v>
@@ -3318,13 +3328,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B113" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C113" t="n">
-        <v>12.3399999999999999</v>
+        <v>12.3400000000000016</v>
       </c>
       <c r="D113" t="n">
         <v>-7.54999999999999982</v>
@@ -3332,10 +3342,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C114" t="n">
         <v>35.5399999999999991</v>
@@ -3346,10 +3356,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C115" t="n">
         <v>14.3599999999999994</v>
@@ -3360,10 +3370,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C116" t="n">
         <v>-20.1000000000000014</v>
@@ -3374,10 +3384,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C117" t="n">
         <v>-12.4800000000000004</v>
@@ -3388,10 +3398,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C118" t="n">
         <v>19.1999999999999993</v>
@@ -3402,10 +3412,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C119" t="n">
         <v>6.54999999999999982</v>
@@ -3416,10 +3426,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C120" t="n">
         <v>47.0200000000000031</v>
@@ -3430,10 +3440,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C121" t="n">
         <v>-25.5799999999999983</v>
@@ -3444,10 +3454,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B122" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C122" t="n">
         <v>16.4499999999999993</v>
@@ -3458,10 +3468,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B123" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C123" t="n">
         <v>-22.3500000000000014</v>
@@ -3472,10 +3482,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C124" t="n">
         <v>27.4499999999999993</v>
@@ -3486,10 +3496,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B125" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C125" t="n">
         <v>52.2299999999999969</v>
@@ -3500,10 +3510,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B126" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C126" t="n">
         <v>12.0500000000000007</v>
@@ -3514,10 +3524,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B127" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C127" t="n">
         <v>-22.1700000000000017</v>
@@ -3528,10 +3538,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C128" t="n">
         <v>-41.1899999999999977</v>
@@ -3542,10 +3552,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B129" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C129" t="n">
         <v>12.0600000000000005</v>
@@ -3556,10 +3566,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B130" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C130" t="n">
         <v>13.2699999999999996</v>
@@ -3570,10 +3580,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B131" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C131" t="n">
         <v>9.05000000000000071</v>
@@ -3584,10 +3594,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C132" t="n">
         <v>-45.2000000000000028</v>
@@ -3598,24 +3608,24 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B133" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C133" t="n">
         <v>15.1199999999999992</v>
       </c>
       <c r="D133" t="n">
-        <v>145.449999999999989</v>
+        <v>145.44999999999996</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C134" t="n">
         <v>59.5499999999999972</v>
@@ -3626,10 +3636,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B135" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C135" t="n">
         <v>23.370000000000001</v>
@@ -3640,24 +3650,24 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C136" t="n">
         <v>33.3999999999999986</v>
       </c>
       <c r="D136" t="n">
-        <v>73.0999999999999943</v>
+        <v>73.0999999999999801</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B137" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C137" t="n">
         <v>7.20000000000000018</v>
@@ -3668,10 +3678,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C138" t="n">
         <v>9</v>
@@ -3682,10 +3692,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C139" t="n">
         <v>-9.24000000000000021</v>
@@ -3696,10 +3706,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B140" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C140" t="n">
         <v>-25.1000000000000014</v>
@@ -3710,10 +3720,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C141" t="n">
         <v>-12</v>
@@ -3724,10 +3734,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C142" t="n">
         <v>14.4000000000000004</v>
@@ -3738,10 +3748,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B143" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C143" t="n">
         <v>52.1300000000000026</v>
@@ -3752,10 +3762,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C144" t="n">
         <v>38.4200000000000017</v>
@@ -3766,10 +3776,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B145" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C145" t="n">
         <v>18.2800000000000011</v>
@@ -3780,10 +3790,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B146" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C146" t="n">
         <v>25.1499999999999986</v>
@@ -3794,10 +3804,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B147" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C147" t="n">
         <v>44.2700000000000031</v>
@@ -3808,10 +3818,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B148" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C148" t="n">
         <v>55.4500000000000028</v>
@@ -3822,10 +3832,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B149" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C149" t="n">
         <v>-1.59000000000000004</v>
@@ -3836,10 +3846,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B150" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C150" t="n">
         <v>17.1700000000000017</v>
@@ -3850,10 +3860,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C151" t="n">
         <v>14.0199999999999996</v>
@@ -3864,10 +3874,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B152" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C152" t="n">
         <v>46.4600000000000009</v>
@@ -3878,10 +3888,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B153" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C153" t="n">
         <v>-13.5</v>
@@ -3892,10 +3902,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B154" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C154" t="n">
         <v>43.5499999999999972</v>
@@ -3906,10 +3916,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B155" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C155" t="n">
         <v>0.1</v>
@@ -3920,10 +3930,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B156" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C156" t="n">
         <v>24.4100000000000001</v>
@@ -3934,13 +3944,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B157" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C157" t="n">
-        <v>14.3399999999999999</v>
+        <v>14.3400000000000016</v>
       </c>
       <c r="D157" t="n">
         <v>-17.2899999999999991</v>
@@ -3948,24 +3958,24 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B158" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C158" t="n">
         <v>8.30000000000000071</v>
       </c>
       <c r="D158" t="n">
-        <v>-13.1699999999999999</v>
+        <v>-13.1700000000000017</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B159" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C159" t="n">
         <v>48.1000000000000014</v>
@@ -3976,10 +3986,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B160" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C160" t="n">
         <v>46.0399999999999991</v>
@@ -3990,10 +4000,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B161" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C161" t="n">
         <v>-9.26999999999999957</v>
@@ -4004,10 +4014,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B162" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C162" t="n">
         <v>2.02000000000000002</v>
@@ -4018,10 +4028,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B163" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C163" t="n">
         <v>-25.4400000000000013</v>
@@ -4032,10 +4042,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B164" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C164" t="n">
         <v>40.25</v>
@@ -4046,10 +4056,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B165" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C165" t="n">
         <v>15.3100000000000005</v>
@@ -4060,10 +4070,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B166" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C166" t="n">
         <v>5.5</v>
@@ -4074,10 +4084,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B167" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C167" t="n">
         <v>-26.1799999999999997</v>
@@ -4088,10 +4098,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B168" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C168" t="n">
         <v>59.2000000000000028</v>
@@ -4102,10 +4112,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B169" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C169" t="n">
         <v>46.5700000000000003</v>
@@ -4116,10 +4126,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B170" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C170" t="n">
         <v>33.2999999999999972</v>
@@ -4130,10 +4140,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B171" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C171" t="n">
         <v>38.3299999999999983</v>
@@ -4144,10 +4154,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B172" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C172" t="n">
         <v>13.4499999999999993</v>
@@ -4158,10 +4168,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B173" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C173" t="n">
         <v>6.08999999999999986</v>
@@ -4172,10 +4182,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B174" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C174" t="n">
         <v>-21.1000000000000014</v>
@@ -4186,10 +4196,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B175" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C175" t="n">
         <v>36.5</v>
@@ -4200,10 +4210,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B176" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C176" t="n">
         <v>39.5700000000000003</v>
@@ -4214,10 +4224,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B177" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C177" t="n">
         <v>38</v>
@@ -4228,10 +4238,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B178" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C178" t="n">
         <v>-8.3100000000000005</v>
@@ -4242,10 +4252,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B179" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C179" t="n">
         <v>0.2</v>
@@ -4256,10 +4266,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B180" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C180" t="n">
         <v>50.2999999999999972</v>
@@ -4270,10 +4280,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B181" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C181" t="n">
         <v>24.2800000000000011</v>
@@ -4284,10 +4294,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B182" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C182" t="n">
         <v>51.3599999999999994</v>
@@ -4298,10 +4308,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B183" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C183" t="n">
         <v>-6.08000000000000007</v>
@@ -4312,24 +4322,24 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B184" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C184" t="n">
         <v>39.9099999999999966</v>
       </c>
       <c r="D184" t="n">
-        <v>-77.019999999999996</v>
+        <v>-77.0199999999999818</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B185" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C185" t="n">
         <v>-34.5</v>
@@ -4340,10 +4350,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B186" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C186" t="n">
         <v>41.2000000000000028</v>
@@ -4354,10 +4364,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B187" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C187" t="n">
         <v>-17.4499999999999993</v>
@@ -4368,10 +4378,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B188" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C188" t="n">
         <v>10.3000000000000007</v>
@@ -4382,10 +4392,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B189" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C189" t="n">
         <v>21.0500000000000007</v>
@@ -4396,10 +4406,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B190" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C190" t="n">
         <v>44.5</v>
@@ -4410,10 +4420,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B191" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C191" t="n">
         <v>-15.2799999999999994</v>
@@ -4424,10 +4434,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B192" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C192" t="n">
         <v>-17.4299999999999997</v>
@@ -4438,10 +4448,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B193" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C193" t="n">
         <v>17.0799999999999983</v>
@@ -4452,10 +4462,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B194" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C194" t="n">
         <v>6.29999999999999982</v>
@@ -4466,10 +4476,10 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B195" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C195" t="n">
         <v>-64.480000000000004</v>
@@ -4477,10 +4487,10 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B196" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C196" t="n">
         <v>-21.120000000000001</v>
@@ -4491,10 +4501,10 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B197" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C197" t="n">
         <v>12.0399999999999991</v>
@@ -4505,24 +4515,24 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B198" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C198" t="n">
         <v>13.2799999999999994</v>
       </c>
       <c r="D198" t="n">
-        <v>144.449999999999989</v>
+        <v>144.44999999999996</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B199" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C199" t="n">
         <v>22.1600000000000001</v>
@@ -4533,10 +4543,10 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B200" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C200" t="n">
         <v>35.3999999999999986</v>
@@ -4547,24 +4557,24 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B201" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C201" t="n">
         <v>39</v>
       </c>
       <c r="D201" t="n">
-        <v>125.469999999999999</v>
+        <v>125.470000000000013</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B202" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C202" t="n">
         <v>17.5899999999999999</v>
@@ -4575,10 +4585,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B203" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C203" t="n">
         <v>32.5399999999999991</v>
@@ -4589,10 +4599,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B204" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C204" t="n">
         <v>42</v>
@@ -4603,10 +4613,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B205" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C205" t="n">
         <v>7.04999999999999982</v>
@@ -4617,10 +4627,10 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B206" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C206" t="n">
         <v>-20.1000000000000014</v>
@@ -4631,10 +4641,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B207" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C207" t="n">
         <v>43.4399999999999977</v>
@@ -4645,10 +4655,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B208" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C208" t="n">
         <v>47.5399999999999991</v>
@@ -4659,10 +4669,10 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B209" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C209" t="n">
         <v>16.4400000000000013</v>
@@ -4673,10 +4683,10 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B210" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C210" t="n">
         <v>34.0200000000000031</v>
@@ -4687,10 +4697,10 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B211" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C211" t="n">
         <v>-14.2699999999999996</v>
@@ -4701,10 +4711,10 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B212" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C212" t="n">
         <v>-20.5199999999999996</v>
@@ -4715,10 +4725,10 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B213" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C213" t="n">
         <v>-4.37999999999999989</v>
@@ -4729,10 +4739,10 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B214" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C214" t="n">
         <v>1.17999999999999994</v>
@@ -4743,24 +4753,24 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B215" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C215" t="n">
         <v>6.54999999999999982</v>
       </c>
       <c r="D215" t="n">
-        <v>79.519999999999996</v>
+        <v>79.5199999999999818</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B216" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C216" t="n">
         <v>13.1199999999999992</v>
@@ -4771,10 +4781,10 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B217" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C217" t="n">
         <v>25.5</v>
@@ -4785,10 +4795,10 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B218" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C218" t="n">
         <v>10.3800000000000008</v>
@@ -4799,10 +4809,10 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B219" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C219" t="n">
         <v>21.3000000000000007</v>
@@ -4813,10 +4823,10 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B220" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C220" t="n">
         <v>18.2199999999999989</v>
@@ -4827,10 +4837,10 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B221" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C221" t="n">
         <v>41.5399999999999991</v>
@@ -4841,10 +4851,10 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B222" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C222" t="n">
         <v>27.1000000000000014</v>
@@ -4855,10 +4865,10 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B223" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C223" t="n">
         <v>15.2400000000000002</v>
@@ -4871,7 +4881,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="10799" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1552411377" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4880,16 +4890,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="10799" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="10799" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="10799" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="10799" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1552411377" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1552411377" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1552411377" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1552411377" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="10799" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1552411377" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
